--- a/Gesture_Controlled_sevenseg/tables/components.xlsx
+++ b/Gesture_Controlled_sevenseg/tables/components.xlsx
@@ -56,7 +56,7 @@
     <t xml:space="preserve">Seven Segment Display</t>
   </si>
   <si>
-    <t xml:space="preserve">USB-UART</t>
+    <t xml:space="preserve">Arduino-UART</t>
   </si>
   <si>
     <t xml:space="preserve">Jumper Wires</t>
@@ -80,6 +80,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -206,7 +207,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -291,7 +292,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="1" right="1" top="1.66666666666667" bottom="1.66666666666667" header="1" footer="1"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="atEnd" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Sans,Regular"&amp;K000000&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Sans,Regular"&amp;K000000Page &amp;P</oddFooter>
@@ -317,7 +318,7 @@
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="1" right="1" top="1.66666666666667" bottom="1.66666666666667" header="1" footer="1"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="atEnd" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Sans,Regular"&amp;K000000&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Sans,Regular"&amp;K000000Page &amp;P</oddFooter>
@@ -343,7 +344,7 @@
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="1" right="1" top="1.66666666666667" bottom="1.66666666666667" header="1" footer="1"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="atEnd" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Sans,Regular"&amp;K000000&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Sans,Regular"&amp;K000000Page &amp;P</oddFooter>
